--- a/final_data_pipeline/output/325312_elec_options.xlsx
+++ b/final_data_pipeline/output/325312_elec_options.xlsx
@@ -831,7 +831,7 @@
         <v>84</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -926,7 +926,7 @@
         <v>84</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -2375,7 +2375,7 @@
         <v>84</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE18">
         <v>8000</v>
@@ -2470,7 +2470,7 @@
         <v>84</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE19">
         <v>8000</v>
@@ -4498,7 +4498,7 @@
         <v>84</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE40">
         <v>8000</v>
@@ -4596,7 +4596,7 @@
         <v>84</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE41">
         <v>8000</v>
@@ -4691,7 +4691,7 @@
         <v>84</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE42">
         <v>8000</v>
@@ -4786,7 +4786,7 @@
         <v>84</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE43">
         <v>8000</v>
@@ -4884,7 +4884,7 @@
         <v>84</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE44">
         <v>8000</v>
@@ -4982,7 +4982,7 @@
         <v>84</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE45">
         <v>8000</v>
@@ -5077,7 +5077,7 @@
         <v>84</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -5172,7 +5172,7 @@
         <v>84</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AE47">
         <v>8000</v>
